--- a/metrics/tm.xlsx
+++ b/metrics/tm.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksay ghulam\Desktop\15OctSE\is203_g2t6\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reganseah\Desktop\IS203 Project\is203_g2t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1 " sheetId="4" r:id="rId1"/>
     <sheet name="Iteration 2" sheetId="5" r:id="rId2"/>
     <sheet name="Iteration 3" sheetId="6" r:id="rId3"/>
+    <sheet name="Iteration 4" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="268">
   <si>
     <t>Category</t>
   </si>
@@ -407,12 +408,6 @@
     <t>Debugging of Deployment</t>
   </si>
   <si>
-    <t>HomePage UI</t>
-  </si>
-  <si>
-    <t>Homepage UI page wireframe</t>
-  </si>
-  <si>
     <t>Student Coding</t>
   </si>
   <si>
@@ -530,12 +525,6 @@
     <t>Display Rank, Bid, Bid status</t>
   </si>
   <si>
-    <t>LiveBid Servlet</t>
-  </si>
-  <si>
-    <t>Calls BidController retrieve Bids by specific section</t>
-  </si>
-  <si>
     <t>Integrate</t>
   </si>
   <si>
@@ -581,9 +570,6 @@
     <t>Test Bootstrap Function</t>
   </si>
   <si>
-    <t>Create HomePage UI</t>
-  </si>
-  <si>
     <t>Supervisor Consultation</t>
   </si>
   <si>
@@ -674,9 +660,6 @@
     <t>Run Add Bid Test Case</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t xml:space="preserve">Debug Bootstrap </t>
   </si>
   <si>
@@ -693,13 +676,163 @@
   </si>
   <si>
     <t>Admin Function Review</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>Iteration 3 Tasks Carried Over</t>
+  </si>
+  <si>
+    <t>Iteration 4 Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging </t>
+  </si>
+  <si>
+    <t>Debug Iteration 3 bugs</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>JSONAuthenticate</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Knowledge Sharing Session on JSON</t>
+  </si>
+  <si>
+    <t>Knowledge Sharing Session in JSON</t>
+  </si>
+  <si>
+    <t>Test Case JSON</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>AWS Deployment and Debugging</t>
+  </si>
+  <si>
+    <t>JSONUpdateBid</t>
+  </si>
+  <si>
+    <t>JSONBootstrap</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>JSONDeleteBid</t>
+  </si>
+  <si>
+    <t>JSONDropSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSONStartRound </t>
+  </si>
+  <si>
+    <t>JSONStartRound</t>
+  </si>
+  <si>
+    <t>JSONStopRound</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>JSONCommonValidation</t>
+  </si>
+  <si>
+    <t>JSONDumpBid</t>
+  </si>
+  <si>
+    <t>JSONDumpSection</t>
+  </si>
+  <si>
+    <t>JSONDumpTable</t>
+  </si>
+  <si>
+    <t>JSONDumpUser</t>
+  </si>
+  <si>
+    <t>Test Function on AWS</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Squashing Session </t>
+  </si>
+  <si>
+    <t>Code Cleanup</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Supervisor Meeting 2</t>
+  </si>
+  <si>
+    <t>Test Code JSON</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>JSON Function Review</t>
+  </si>
+  <si>
+    <t>Debug Buffer Time</t>
+  </si>
+  <si>
+    <t>UI Coding(Carried over from Iteration 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Homepage UI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheryl </t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Restructure</t>
+  </si>
+  <si>
+    <t>Restructure Round 2 Clearing Logic</t>
+  </si>
+  <si>
+    <t>Restructured clearing logic, however debugging is carried forward</t>
+  </si>
+  <si>
+    <t>Student View Completed Course Page</t>
+  </si>
+  <si>
+    <t>JSONAuthenticate(Done but pplog down)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -772,6 +905,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -855,7 +1000,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1023,11 +1168,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1115,6 +1271,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1139,19 +1345,24 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,6 +1456,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1280,6 +1508,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1438,25 +1683,25 @@
       <selection activeCell="A33" sqref="A33:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.73046875" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C1" s="47" t="s">
         <v>46</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B2" s="37" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +1711,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B3" s="39" t="s">
         <v>85</v>
       </c>
@@ -1475,7 +1720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B4" s="41" t="s">
         <v>79</v>
       </c>
@@ -1486,7 +1731,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B5" s="42" t="s">
         <v>86</v>
       </c>
@@ -1497,10 +1742,10 @@
       <c r="M5" s="1"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1765,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -1539,7 +1784,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -1561,7 +1806,7 @@
       <c r="L9" s="5"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="23" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1825,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
@@ -1599,7 +1844,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1618,7 +1863,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
@@ -1637,7 +1882,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="25" t="s">
         <v>23</v>
       </c>
@@ -1656,7 +1901,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>27</v>
       </c>
@@ -1677,7 +1922,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
@@ -1698,7 +1943,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="50" t="s">
         <v>29</v>
       </c>
@@ -1721,7 +1966,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="50" t="s">
         <v>29</v>
       </c>
@@ -1744,7 +1989,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -1767,7 +2012,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
         <v>35</v>
       </c>
@@ -1790,7 +2035,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="22" t="s">
         <v>35</v>
       </c>
@@ -1813,7 +2058,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
@@ -1836,7 +2081,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="22" t="s">
         <v>35</v>
       </c>
@@ -1859,7 +2104,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
@@ -1882,7 +2127,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
@@ -1906,7 +2151,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="22" t="s">
         <v>38</v>
       </c>
@@ -1929,7 +2174,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="22" t="s">
         <v>38</v>
       </c>
@@ -1952,7 +2197,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="22" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +2220,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="26" t="s">
         <v>38</v>
       </c>
@@ -1998,7 +2243,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
         <v>38</v>
       </c>
@@ -2021,7 +2266,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" s="50" t="s">
         <v>56</v>
       </c>
@@ -2044,7 +2289,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
@@ -2067,7 +2312,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" s="50" t="s">
         <v>58</v>
       </c>
@@ -2090,7 +2335,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="50" t="s">
         <v>58</v>
       </c>
@@ -2113,7 +2358,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="50" t="s">
         <v>58</v>
       </c>
@@ -2136,7 +2381,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>58</v>
       </c>
@@ -2159,7 +2404,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="50" t="s">
         <v>58</v>
       </c>
@@ -2182,7 +2427,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="50" t="s">
         <v>66</v>
       </c>
@@ -2203,7 +2448,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>68</v>
       </c>
@@ -2222,7 +2467,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>68</v>
       </c>
@@ -2241,7 +2486,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>68</v>
       </c>
@@ -2257,7 +2502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>68</v>
       </c>
@@ -2273,7 +2518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>68</v>
       </c>
@@ -2289,7 +2534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>68</v>
       </c>
@@ -2305,7 +2550,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="50" t="s">
         <v>68</v>
       </c>
@@ -2321,7 +2566,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="50" t="s">
         <v>76</v>
       </c>
@@ -2339,7 +2584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="18" t="s">
         <v>82</v>
       </c>
@@ -2359,7 +2604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="45" t="s">
         <v>82</v>
       </c>
@@ -2389,26 +2634,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C1" s="47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="37" t="s">
         <v>84</v>
       </c>
@@ -2417,7 +2662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="39" t="s">
         <v>85</v>
       </c>
@@ -2426,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="41" t="s">
         <v>79</v>
       </c>
@@ -2435,7 +2680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B5" s="42" t="s">
         <v>86</v>
       </c>
@@ -2444,7 +2689,7 @@
         <v>68.965517241379317</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -2462,17 +2707,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
@@ -2492,7 +2737,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
         <v>58</v>
       </c>
@@ -2513,7 +2758,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>58</v>
       </c>
@@ -2534,7 +2779,7 @@
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>58</v>
       </c>
@@ -2555,7 +2800,7 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
         <v>29</v>
       </c>
@@ -2576,7 +2821,7 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
@@ -2597,7 +2842,7 @@
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
@@ -2618,7 +2863,7 @@
       </c>
       <c r="J15" s="46"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>66</v>
       </c>
@@ -2639,7 +2884,7 @@
       </c>
       <c r="J16" s="46"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="60" t="s">
         <v>56</v>
       </c>
@@ -2660,18 +2905,18 @@
       </c>
       <c r="J17" s="46"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
       <c r="J18" s="46"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="21" t="s">
         <v>98</v>
@@ -2688,7 +2933,7 @@
       </c>
       <c r="J19" s="46"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>11</v>
       </c>
@@ -2707,7 +2952,7 @@
       </c>
       <c r="J20" s="46"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
@@ -2726,7 +2971,7 @@
       </c>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="60" t="s">
         <v>56</v>
       </c>
@@ -2747,7 +2992,7 @@
       </c>
       <c r="J22" s="46"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>58</v>
       </c>
@@ -2768,7 +3013,7 @@
       </c>
       <c r="J23" s="46"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="60" t="s">
         <v>75</v>
       </c>
@@ -2785,7 +3030,7 @@
       </c>
       <c r="J24" s="46"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="60" t="s">
         <v>107</v>
       </c>
@@ -2806,7 +3051,7 @@
       </c>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>11</v>
       </c>
@@ -2823,7 +3068,7 @@
       </c>
       <c r="J26" s="46"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="60" t="s">
         <v>56</v>
       </c>
@@ -2844,7 +3089,7 @@
       </c>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="60" t="s">
         <v>58</v>
       </c>
@@ -2865,7 +3110,7 @@
       </c>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="49" t="s">
         <v>58</v>
       </c>
@@ -2885,7 +3130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="60" t="s">
         <v>113</v>
       </c>
@@ -2905,12 +3150,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>117</v>
@@ -2925,7 +3170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="60" t="s">
         <v>116</v>
       </c>
@@ -2945,7 +3190,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
         <v>116</v>
       </c>
@@ -2965,7 +3210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="60" t="s">
         <v>116</v>
       </c>
@@ -2985,7 +3230,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
         <v>56</v>
       </c>
@@ -3005,7 +3250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
         <v>58</v>
       </c>
@@ -3025,7 +3270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
         <v>124</v>
       </c>
@@ -3043,7 +3288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="48" t="s">
         <v>107</v>
       </c>
@@ -3073,68 +3318,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D1" s="47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C2" s="37" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="38">
         <f>COUNTIF(G:G,"YES")</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C3" s="39" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="40">
         <f>COUNTIF(G:G,"NO")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C4" s="41" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="40">
-        <f>COUNTA(G$18:G216)</f>
-        <v>54</v>
+        <f>COUNTA(G$9:G215)</f>
+        <v>62</v>
       </c>
       <c r="G4" s="75"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C5" s="42" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="43">
         <f>(D2/D4)*100</f>
-        <v>90.740740740740748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>91.935483870967744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>0</v>
@@ -3153,18 +3398,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="67">
         <v>42439</v>
       </c>
@@ -3172,7 +3417,7 @@
         <v>116</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>119</v>
@@ -3188,7 +3433,7 @@
       </c>
       <c r="K9" s="46"/>
     </row>
-    <row r="10" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="67">
         <v>42439</v>
       </c>
@@ -3212,7 +3457,7 @@
       </c>
       <c r="K10" s="64"/>
     </row>
-    <row r="11" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67">
         <v>42439</v>
       </c>
@@ -3236,7 +3481,7 @@
       </c>
       <c r="K11" s="64"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>42439</v>
       </c>
@@ -3244,10 +3489,10 @@
         <v>75</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>15</v>
@@ -3260,7 +3505,7 @@
       </c>
       <c r="K12" s="46"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="67">
         <v>42439</v>
       </c>
@@ -3284,7 +3529,7 @@
       </c>
       <c r="K13" s="46"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="67">
         <v>42439</v>
       </c>
@@ -3308,7 +3553,7 @@
       </c>
       <c r="K14" s="46"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="67">
         <v>42439</v>
       </c>
@@ -3316,17 +3561,19 @@
         <v>82</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="44"/>
+      <c r="G15" s="44" t="s">
+        <v>84</v>
+      </c>
       <c r="K15" s="46"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="67">
         <v>42500</v>
       </c>
@@ -3349,30 +3596,30 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74">
         <v>42439</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E18" s="72" t="s">
         <v>28</v>
@@ -3382,18 +3629,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="74">
         <v>42439</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E19" s="72" t="s">
         <v>25</v>
@@ -3403,18 +3650,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="74">
         <v>42439</v>
       </c>
       <c r="B20" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="72" t="s">
-        <v>147</v>
-      </c>
       <c r="D20" s="72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E20" s="72" t="s">
         <v>28</v>
@@ -3424,18 +3671,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="74">
         <v>42439</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E21" s="72" t="s">
         <v>28</v>
@@ -3445,18 +3692,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="74">
         <v>42439</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E22" s="72" t="s">
         <v>28</v>
@@ -3466,18 +3713,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="74">
         <v>42439</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E23" s="72" t="s">
         <v>28</v>
@@ -3487,110 +3734,110 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="86">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="68">
         <v>42470</v>
       </c>
-      <c r="B24" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="88" t="s">
+      <c r="B24" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="88" t="s">
+      <c r="D24" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="68">
         <v>42470</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D25" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="68">
+        <v>42500</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="68">
-        <v>42470</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>138</v>
-      </c>
       <c r="D26" s="21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G26" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="68">
         <v>42500</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G27" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="68">
         <v>42500</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>16</v>
@@ -3602,35 +3849,35 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="68">
         <v>42500</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="G29" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="68">
         <v>42500</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>154</v>
@@ -3639,27 +3886,27 @@
         <v>155</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="G30" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="68">
-        <v>42500</v>
+        <v>42561</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>28</v>
@@ -3671,83 +3918,83 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="68">
         <v>42561</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G32" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="68">
-        <v>42561</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="70">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="70">
         <v>42592</v>
       </c>
-      <c r="B34" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="72" t="s">
+      <c r="B33" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="68">
+        <v>42592</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="68">
         <v>42592</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>16</v>
@@ -3759,153 +4006,153 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="68">
         <v>42592</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G36" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="68">
         <v>42592</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C37" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="70">
+        <v>42592</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="68">
+        <v>42592</v>
+      </c>
+      <c r="B39" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="C39" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="68">
+        <v>42592</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="21" t="s">
+      <c r="E40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="68">
-        <v>42592</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="70">
-        <v>42592</v>
-      </c>
-      <c r="B39" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="72" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="72" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="86">
-        <v>42592</v>
-      </c>
-      <c r="B40" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="68">
         <v>42592</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G41" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="68">
         <v>42592</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>163</v>
@@ -3914,250 +4161,254 @@
         <v>28</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G42" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="68">
         <v>42592</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G43" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="68">
         <v>42592</v>
       </c>
       <c r="B44" s="65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G44" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="68">
         <v>42592</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="D45" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="77">
+        <v>42592</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="70">
+        <v>42623</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="70">
+        <v>42623</v>
+      </c>
+      <c r="B48" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="78">
+        <v>42653</v>
+      </c>
+      <c r="B49" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="E49" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="70">
+        <v>42653</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="F50" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="68">
+        <v>42684</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="21" t="s">
+      <c r="D51" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="67">
+        <v>42684</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="68">
-        <v>42592</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="68">
-        <v>42592</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="85">
-        <v>42592</v>
-      </c>
-      <c r="B48" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F48" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="70">
-        <v>42623</v>
-      </c>
-      <c r="B49" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="72" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="70">
-        <v>42623</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="72" t="s">
+      <c r="F52" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70">
-        <v>42653</v>
-      </c>
-      <c r="B51" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="68">
-        <v>42684</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="67">
         <v>42684</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>15</v>
@@ -4169,18 +4420,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="67">
         <v>42684</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>15</v>
@@ -4192,18 +4443,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="67">
         <v>42684</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>15</v>
@@ -4215,287 +4466,287 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="67">
-        <v>42684</v>
-      </c>
-      <c r="B56" s="65" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="78">
+        <v>42714</v>
+      </c>
+      <c r="B56" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="70">
+        <v>42714</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="70">
+        <v>42714</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="70">
+        <v>42714</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="70">
+        <v>42714</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="72"/>
+      <c r="G60" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="78">
+        <v>42714</v>
+      </c>
+      <c r="B61" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="80"/>
+      <c r="G61" s="81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="21" t="s">
+      <c r="C65" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="G65" s="81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E66" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="86">
-        <v>42714</v>
-      </c>
-      <c r="B57" s="87" t="s">
+      <c r="F66" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="88" t="s">
+      <c r="B67" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="89" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="86">
-        <v>42714</v>
-      </c>
-      <c r="B58" s="87" t="s">
+      <c r="G67" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="89" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="86">
-        <v>42714</v>
-      </c>
-      <c r="B59" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="88"/>
-      <c r="G59" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="86">
-        <v>42714</v>
-      </c>
-      <c r="B60" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="88"/>
-      <c r="G60" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="86">
-        <v>42714</v>
-      </c>
-      <c r="B61" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="88"/>
-      <c r="G61" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="86">
-        <v>42714</v>
-      </c>
-      <c r="B62" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="88"/>
-      <c r="G62" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="B63" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="88"/>
-      <c r="G63" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" s="21" t="s">
+      <c r="B68" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="B66" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="88" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="E66" s="88" t="s">
-        <v>188</v>
-      </c>
-      <c r="F66" s="88" t="s">
-        <v>188</v>
-      </c>
-      <c r="G66" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B68" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>16</v>
@@ -4504,41 +4755,41 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="B69" s="65" t="s">
-        <v>130</v>
+        <v>213</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>212</v>
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>216</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G69" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>75</v>
+        <v>213</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>215</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" t="s">
-        <v>222</v>
+        <v>201</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>15</v>
@@ -4547,33 +4798,33 @@
         <v>16</v>
       </c>
       <c r="G70" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="78">
+        <v>42659</v>
+      </c>
+      <c r="B71" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="81" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="B71" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="21"/>
       <c r="B72" s="65"/>
       <c r="C72" s="21"/>
@@ -4582,7 +4833,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="44"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="21"/>
       <c r="B73" s="65"/>
       <c r="C73" s="21"/>
@@ -4591,7 +4842,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="44"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="21"/>
       <c r="B74" s="65"/>
       <c r="C74" s="21"/>
@@ -4600,7 +4851,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="44"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="21"/>
       <c r="B75" s="65"/>
       <c r="C75" s="21"/>
@@ -4608,15 +4859,6 @@
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
       <c r="G75" s="44"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="44"/>
     </row>
   </sheetData>
   <sortState ref="A18:G72">
@@ -4629,4 +4871,737 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.1328125" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="D1" s="47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="38">
+        <f>COUNTIF(G:G,"YES")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="40">
+        <f>COUNTIF(G:G,"NO")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="40">
+        <f>COUNTA(G$9:G211)</f>
+        <v>27</v>
+      </c>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="C5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="43">
+        <f>(D2/D4)*100</f>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="86"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="103" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="104"/>
+      <c r="G10" s="86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="94"/>
+      <c r="G15" s="93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/metrics/tm.xlsx
+++ b/metrics/tm.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reganseah\Desktop\IS203 Project\is203_g2t6\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksay ghulam\Desktop\Nov13\is203_g2t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1 " sheetId="4" r:id="rId1"/>
     <sheet name="Iteration 2" sheetId="5" r:id="rId2"/>
     <sheet name="Iteration 3" sheetId="6" r:id="rId3"/>
     <sheet name="Iteration 4" sheetId="7" r:id="rId4"/>
+    <sheet name="Iteration 5" sheetId="8" r:id="rId5"/>
+    <sheet name="Iteration 6" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="326">
   <si>
     <t>Category</t>
   </si>
@@ -825,13 +827,187 @@
     <t>Student View Completed Course Page</t>
   </si>
   <si>
-    <t>JSONAuthenticate(Done but pplog down)</t>
+    <t>Iteration 4 Tasks Carried Over</t>
+  </si>
+  <si>
+    <t>Iteration 5 Tasks</t>
+  </si>
+  <si>
+    <t>Iteration 5</t>
+  </si>
+  <si>
+    <t>Iteration 6</t>
+  </si>
+  <si>
+    <t>Debug JSON</t>
+  </si>
+  <si>
+    <t>Admin UI Coding</t>
+  </si>
+  <si>
+    <t>Student UI Coding</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>AWS Deployment</t>
+  </si>
+  <si>
+    <t>UAT AWS Deployment</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>User Acceptance Test</t>
+  </si>
+  <si>
+    <t>Debug UAT</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Javadoc</t>
+  </si>
+  <si>
+    <t>Create Javadoc</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Run Json Test Case</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>UI Test</t>
+  </si>
+  <si>
+    <t>Json Test</t>
+  </si>
+  <si>
+    <t>Create UI Test Case</t>
+  </si>
+  <si>
+    <t>Regression Test</t>
+  </si>
+  <si>
+    <t>Regression Testing Session 1</t>
+  </si>
+  <si>
+    <t>Debug Test Case</t>
+  </si>
+  <si>
+    <t>Debug Regression Testing Session 1</t>
+  </si>
+  <si>
+    <t>Regression Testing Session 2</t>
+  </si>
+  <si>
+    <t>Debug Regression Testing Session 2</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Debug UAT JSON bugs</t>
+  </si>
+  <si>
+    <t>Debug UAT manual test bugs</t>
+  </si>
+  <si>
+    <t>Iteration 5 Tasks Carried Over</t>
+  </si>
+  <si>
+    <t>Iteration 6 Tasks</t>
+  </si>
+  <si>
+    <t>Debug UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Bid Status Test Case </t>
+  </si>
+  <si>
+    <t>JSONBidStatus</t>
+  </si>
+  <si>
+    <t>Code JSONBidStatus</t>
+  </si>
+  <si>
+    <t>Test JSONBidStatus</t>
+  </si>
+  <si>
+    <t>Debug JSONBidStatus</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>Deploy and test AWS</t>
+  </si>
+  <si>
+    <t>Debug AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>Diagram</t>
+  </si>
+  <si>
+    <t>Update Diagrams</t>
+  </si>
+  <si>
+    <t>Project Submission</t>
+  </si>
+  <si>
+    <t>Final Presentation</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huiyan </t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Documentation &amp; CleanUp</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1183,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1297,30 +1473,30 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1456,23 +1632,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1508,23 +1667,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1683,25 +1825,25 @@
       <selection activeCell="A33" sqref="A33:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" customWidth="1"/>
-    <col min="2" max="2" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="11" max="11" width="22.59765625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1" s="47" t="s">
         <v>46</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
         <v>84</v>
       </c>
@@ -1711,7 +1853,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="39" t="s">
         <v>85</v>
       </c>
@@ -1720,7 +1862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="41" t="s">
         <v>79</v>
       </c>
@@ -1731,7 +1873,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="42" t="s">
         <v>86</v>
       </c>
@@ -1742,10 +1884,10 @@
       <c r="M5" s="1"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1907,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -1784,7 +1926,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1948,7 @@
       <c r="L9" s="5"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1967,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
@@ -1844,7 +1986,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1863,7 +2005,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
@@ -1882,7 +2024,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>23</v>
       </c>
@@ -1901,7 +2043,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>27</v>
       </c>
@@ -1922,7 +2064,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
@@ -1943,7 +2085,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>29</v>
       </c>
@@ -1966,7 +2108,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>29</v>
       </c>
@@ -1989,7 +2131,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -2012,7 +2154,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>35</v>
       </c>
@@ -2035,7 +2177,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>35</v>
       </c>
@@ -2058,7 +2200,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
@@ -2081,7 +2223,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>35</v>
       </c>
@@ -2104,7 +2246,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
@@ -2127,7 +2269,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
@@ -2151,7 +2293,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>38</v>
       </c>
@@ -2174,7 +2316,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>38</v>
       </c>
@@ -2197,7 +2339,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>38</v>
       </c>
@@ -2220,7 +2362,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>38</v>
       </c>
@@ -2243,7 +2385,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>38</v>
       </c>
@@ -2266,7 +2408,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
         <v>56</v>
       </c>
@@ -2289,7 +2431,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
@@ -2312,7 +2454,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
         <v>58</v>
       </c>
@@ -2335,7 +2477,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>58</v>
       </c>
@@ -2358,7 +2500,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>58</v>
       </c>
@@ -2381,7 +2523,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>58</v>
       </c>
@@ -2404,7 +2546,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
         <v>58</v>
       </c>
@@ -2427,7 +2569,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>66</v>
       </c>
@@ -2448,7 +2590,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>68</v>
       </c>
@@ -2467,7 +2609,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>68</v>
       </c>
@@ -2486,7 +2628,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>68</v>
       </c>
@@ -2502,7 +2644,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>68</v>
       </c>
@@ -2518,7 +2660,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>68</v>
       </c>
@@ -2534,7 +2676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>68</v>
       </c>
@@ -2550,7 +2692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>68</v>
       </c>
@@ -2566,7 +2708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>76</v>
       </c>
@@ -2584,7 +2726,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>82</v>
       </c>
@@ -2604,7 +2746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>82</v>
       </c>
@@ -2638,22 +2780,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1" s="47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
         <v>84</v>
       </c>
@@ -2662,7 +2804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="39" t="s">
         <v>85</v>
       </c>
@@ -2671,7 +2813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="41" t="s">
         <v>79</v>
       </c>
@@ -2680,7 +2822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="42" t="s">
         <v>86</v>
       </c>
@@ -2689,7 +2831,7 @@
         <v>68.965517241379317</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -2707,17 +2849,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="105" t="s">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
@@ -2737,7 +2879,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>58</v>
       </c>
@@ -2758,7 +2900,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>58</v>
       </c>
@@ -2779,7 +2921,7 @@
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>58</v>
       </c>
@@ -2800,7 +2942,7 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>29</v>
       </c>
@@ -2821,7 +2963,7 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
@@ -2842,7 +2984,7 @@
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
@@ -2863,7 +3005,7 @@
       </c>
       <c r="J15" s="46"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>66</v>
       </c>
@@ -2884,7 +3026,7 @@
       </c>
       <c r="J16" s="46"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="60" t="s">
         <v>56</v>
       </c>
@@ -2905,18 +3047,18 @@
       </c>
       <c r="J17" s="46"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
       <c r="J18" s="46"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="21" t="s">
         <v>98</v>
@@ -2933,7 +3075,7 @@
       </c>
       <c r="J19" s="46"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>11</v>
       </c>
@@ -2952,7 +3094,7 @@
       </c>
       <c r="J20" s="46"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
@@ -2971,7 +3113,7 @@
       </c>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="60" t="s">
         <v>56</v>
       </c>
@@ -2992,7 +3134,7 @@
       </c>
       <c r="J22" s="46"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>58</v>
       </c>
@@ -3013,7 +3155,7 @@
       </c>
       <c r="J23" s="46"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="60" t="s">
         <v>75</v>
       </c>
@@ -3030,7 +3172,7 @@
       </c>
       <c r="J24" s="46"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
         <v>107</v>
       </c>
@@ -3051,7 +3193,7 @@
       </c>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>11</v>
       </c>
@@ -3068,7 +3210,7 @@
       </c>
       <c r="J26" s="46"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="60" t="s">
         <v>56</v>
       </c>
@@ -3089,7 +3231,7 @@
       </c>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="60" t="s">
         <v>58</v>
       </c>
@@ -3110,7 +3252,7 @@
       </c>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="49" t="s">
         <v>58</v>
       </c>
@@ -3130,7 +3272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="60" t="s">
         <v>113</v>
       </c>
@@ -3150,7 +3292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>116</v>
       </c>
@@ -3170,7 +3312,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="60" t="s">
         <v>116</v>
       </c>
@@ -3190,7 +3332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>116</v>
       </c>
@@ -3210,7 +3352,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="60" t="s">
         <v>116</v>
       </c>
@@ -3230,7 +3372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>56</v>
       </c>
@@ -3250,7 +3392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>58</v>
       </c>
@@ -3270,7 +3412,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>124</v>
       </c>
@@ -3288,7 +3430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="48" t="s">
         <v>107</v>
       </c>
@@ -3320,27 +3462,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G71" sqref="B69:G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1328125" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="37" t="s">
         <v>84</v>
       </c>
@@ -3349,7 +3491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="39" t="s">
         <v>85</v>
       </c>
@@ -3358,7 +3500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="41" t="s">
         <v>79</v>
       </c>
@@ -3368,7 +3510,7 @@
       </c>
       <c r="G4" s="75"/>
     </row>
-    <row r="5" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="42" t="s">
         <v>86</v>
       </c>
@@ -3377,7 +3519,7 @@
         <v>91.935483870967744</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>178</v>
       </c>
@@ -3398,18 +3540,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="105" t="s">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="67">
         <v>42439</v>
       </c>
@@ -3433,7 +3575,7 @@
       </c>
       <c r="K9" s="46"/>
     </row>
-    <row r="10" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67">
         <v>42439</v>
       </c>
@@ -3457,7 +3599,7 @@
       </c>
       <c r="K10" s="64"/>
     </row>
-    <row r="11" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="67">
         <v>42439</v>
       </c>
@@ -3481,7 +3623,7 @@
       </c>
       <c r="K11" s="64"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="74">
         <v>42439</v>
       </c>
@@ -3505,7 +3647,7 @@
       </c>
       <c r="K12" s="46"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="67">
         <v>42439</v>
       </c>
@@ -3529,7 +3671,7 @@
       </c>
       <c r="K13" s="46"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="67">
         <v>42439</v>
       </c>
@@ -3553,7 +3695,7 @@
       </c>
       <c r="K14" s="46"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="67">
         <v>42439</v>
       </c>
@@ -3573,7 +3715,7 @@
       </c>
       <c r="K15" s="46"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="67">
         <v>42500</v>
       </c>
@@ -3596,19 +3738,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="108" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="74">
         <v>42439</v>
       </c>
@@ -3629,7 +3771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74">
         <v>42439</v>
       </c>
@@ -3650,7 +3792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="74">
         <v>42439</v>
       </c>
@@ -3671,7 +3813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="74">
         <v>42439</v>
       </c>
@@ -3692,7 +3834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="74">
         <v>42439</v>
       </c>
@@ -3713,7 +3855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="74">
         <v>42439</v>
       </c>
@@ -3734,7 +3876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="68">
         <v>42470</v>
       </c>
@@ -3757,7 +3899,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="68">
         <v>42470</v>
       </c>
@@ -3780,7 +3922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="68">
         <v>42500</v>
       </c>
@@ -3803,7 +3945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="68">
         <v>42500</v>
       </c>
@@ -3826,7 +3968,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="68">
         <v>42500</v>
       </c>
@@ -3849,7 +3991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="68">
         <v>42500</v>
       </c>
@@ -3872,7 +4014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="68">
         <v>42500</v>
       </c>
@@ -3895,7 +4037,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="68">
         <v>42561</v>
       </c>
@@ -3918,7 +4060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="68">
         <v>42561</v>
       </c>
@@ -3941,7 +4083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="70">
         <v>42592</v>
       </c>
@@ -3960,7 +4102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="68">
         <v>42592</v>
       </c>
@@ -3983,7 +4125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="68">
         <v>42592</v>
       </c>
@@ -4006,7 +4148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="68">
         <v>42592</v>
       </c>
@@ -4029,7 +4171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="68">
         <v>42592</v>
       </c>
@@ -4052,7 +4194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="70">
         <v>42592</v>
       </c>
@@ -4075,7 +4217,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="68">
         <v>42592</v>
       </c>
@@ -4098,7 +4240,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="68">
         <v>42592</v>
       </c>
@@ -4121,7 +4263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="68">
         <v>42592</v>
       </c>
@@ -4144,7 +4286,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="68">
         <v>42592</v>
       </c>
@@ -4167,7 +4309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="68">
         <v>42592</v>
       </c>
@@ -4190,7 +4332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="68">
         <v>42592</v>
       </c>
@@ -4213,7 +4355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="68">
         <v>42592</v>
       </c>
@@ -4236,7 +4378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="77">
         <v>42592</v>
       </c>
@@ -4259,7 +4401,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="70">
         <v>42623</v>
       </c>
@@ -4282,7 +4424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="70">
         <v>42623</v>
       </c>
@@ -4305,7 +4447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="78">
         <v>42653</v>
       </c>
@@ -4328,7 +4470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="70">
         <v>42653</v>
       </c>
@@ -4351,7 +4493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="68">
         <v>42684</v>
       </c>
@@ -4374,7 +4516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="67">
         <v>42684</v>
       </c>
@@ -4397,7 +4539,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="67">
         <v>42684</v>
       </c>
@@ -4420,7 +4562,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="67">
         <v>42684</v>
       </c>
@@ -4443,7 +4585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="67">
         <v>42684</v>
       </c>
@@ -4466,7 +4608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="78">
         <v>42714</v>
       </c>
@@ -4489,7 +4631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="70">
         <v>42714</v>
       </c>
@@ -4512,7 +4654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="70">
         <v>42714</v>
       </c>
@@ -4533,7 +4675,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="70">
         <v>42714</v>
       </c>
@@ -4554,7 +4696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="70">
         <v>42714</v>
       </c>
@@ -4575,7 +4717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="78">
         <v>42714</v>
       </c>
@@ -4596,7 +4738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="70" t="s">
         <v>195</v>
       </c>
@@ -4617,7 +4759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="76" t="s">
         <v>195</v>
       </c>
@@ -4640,7 +4782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="69" t="s">
         <v>195</v>
       </c>
@@ -4663,7 +4805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="82" t="s">
         <v>196</v>
       </c>
@@ -4686,7 +4828,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="76" t="s">
         <v>196</v>
       </c>
@@ -4709,7 +4851,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="69" t="s">
         <v>206</v>
       </c>
@@ -4732,7 +4874,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="76" t="s">
         <v>206</v>
       </c>
@@ -4755,7 +4897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="76" t="s">
         <v>213</v>
       </c>
@@ -4778,7 +4920,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="76" t="s">
         <v>213</v>
       </c>
@@ -4801,7 +4943,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="78">
         <v>42659</v>
       </c>
@@ -4824,7 +4966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="21"/>
       <c r="B72" s="65"/>
       <c r="C72" s="21"/>
@@ -4833,7 +4975,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="44"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="21"/>
       <c r="B73" s="65"/>
       <c r="C73" s="21"/>
@@ -4842,7 +4984,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="44"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="21"/>
       <c r="B74" s="65"/>
       <c r="C74" s="21"/>
@@ -4851,7 +4993,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="44"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
       <c r="B75" s="65"/>
       <c r="C75" s="21"/>
@@ -4875,66 +5017,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1328125" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D1" s="47" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2" s="37" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="38">
         <f>COUNTIF(G:G,"YES")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="39" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="40">
         <f>COUNTIF(G:G,"NO")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="41" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="40">
-        <f>COUNTA(G$9:G211)</f>
-        <v>27</v>
+        <f>COUNTA(G$9:G212)</f>
+        <v>28</v>
       </c>
       <c r="G4" s="75"/>
     </row>
-    <row r="5" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="42" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="43">
         <f>(D2/D4)*100</f>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+        <v>89.285714285714292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>178</v>
       </c>
@@ -4955,28 +5097,28 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="113" t="s">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="115"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="86"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="103" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="95" t="s">
         <v>256</v>
       </c>
       <c r="B10" s="71" t="s">
@@ -4991,13 +5133,13 @@
       <c r="E10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="103" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="95" t="s">
         <v>262</v>
       </c>
       <c r="B11" s="71" t="s">
@@ -5015,19 +5157,19 @@
       <c r="F11" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="95" t="s">
+      <c r="G11" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="93" t="s">
         <v>225</v>
       </c>
       <c r="B12" s="86" t="s">
         <v>221</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="D12" s="88" t="s">
         <v>222</v>
@@ -5039,11 +5181,11 @@
         <v>16</v>
       </c>
       <c r="G12" s="88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="93" t="s">
         <v>225</v>
       </c>
       <c r="B13" s="86" t="s">
@@ -5061,65 +5203,65 @@
       <c r="F13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="116" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="118"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="101" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="93" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="102" t="s">
+      <c r="F15" s="89"/>
+      <c r="G15" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="F16" s="89"/>
+      <c r="G16" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="93" t="s">
         <v>225</v>
       </c>
       <c r="B17" s="86" t="s">
@@ -5129,7 +5271,7 @@
         <v>224</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="E17" s="88" t="s">
         <v>28</v>
@@ -5138,11 +5280,11 @@
         <v>15</v>
       </c>
       <c r="G17" s="88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="93" t="s">
         <v>232</v>
       </c>
       <c r="B18" s="86" t="s">
@@ -5161,10 +5303,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="84" t="s">
         <v>232</v>
       </c>
@@ -5184,11 +5326,11 @@
         <v>15</v>
       </c>
       <c r="G19" s="88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="94" t="s">
         <v>232</v>
       </c>
       <c r="B20" s="92" t="s">
@@ -5206,11 +5348,11 @@
       <c r="F20" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="85" t="s">
         <v>236</v>
       </c>
@@ -5233,7 +5375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="85" t="s">
         <v>236</v>
       </c>
@@ -5256,7 +5398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="85" t="s">
         <v>236</v>
       </c>
@@ -5275,11 +5417,11 @@
       <c r="F23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G23" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
         <v>236</v>
       </c>
@@ -5298,11 +5440,11 @@
       <c r="F24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="68" t="s">
         <v>242</v>
       </c>
@@ -5325,7 +5467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="68" t="s">
         <v>242</v>
       </c>
@@ -5344,11 +5486,11 @@
       <c r="F26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G26" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="68" t="s">
         <v>242</v>
       </c>
@@ -5367,11 +5509,11 @@
       <c r="F27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="68" t="s">
         <v>242</v>
       </c>
@@ -5390,11 +5532,11 @@
       <c r="F28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="70" t="s">
         <v>242</v>
       </c>
@@ -5413,11 +5555,11 @@
       <c r="F29" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G29" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="68" t="s">
         <v>242</v>
       </c>
@@ -5436,57 +5578,57 @@
       <c r="F30" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>185</v>
+        <v>242</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>223</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="G31" s="44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="68" t="s">
         <v>250</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="G32" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="68" t="s">
         <v>250</v>
       </c>
@@ -5494,106 +5636,130 @@
         <v>107</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="70" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B35" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C35" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D35" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E35" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="97" t="s">
+      <c r="F35" s="72"/>
+      <c r="G35" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B36" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C36" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="D36" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="99" t="s">
+      <c r="E36" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="99" t="s">
+      <c r="F36" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="97" t="s">
+      <c r="G36" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B37" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C37" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D37" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="E37" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="97" t="s">
+      <c r="F37" s="21"/>
+      <c r="G37" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G37" t="s">
-        <v>85</v>
+      <c r="G38" s="88" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5604,4 +5770,888 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="38">
+        <f>COUNTIF(G:G,"YES")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="40">
+        <f>COUNTIF(G:G,"NO")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="40">
+        <f>COUNTA(G$9:G218)</f>
+        <v>14</v>
+      </c>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="43">
+        <f>(D2/D4)*100</f>
+        <v>64.285714285714292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="93">
+        <v>42411</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="93">
+        <v>42411</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="93">
+        <v>42411</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="114" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="116"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="89"/>
+      <c r="G17" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="98" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="89"/>
+      <c r="G21" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" s="47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="38">
+        <f>COUNTIF(G:G,"YES")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="40">
+        <f>COUNTIF(G:G,"NO")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="40">
+        <f>COUNTA(G$9:G220)</f>
+        <v>17</v>
+      </c>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="43">
+        <f>(D2/D4)*100</f>
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="89"/>
+      <c r="G12" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="114" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="89"/>
+      <c r="G16" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="101" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="89"/>
+      <c r="G20" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="101" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="89"/>
+      <c r="G22" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="89"/>
+      <c r="G23" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="101" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="89"/>
+      <c r="G24" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" s="88"/>
+      <c r="E26" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>